--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史按钮点击后需要出现什么效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改复选框样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本机存储，存储多少个历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>药罐子图片跟背景图结合在一块显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,16 +280,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>购买天数剩余天数将删除，改为 2019-12-10 到期（参考京东）
-如果不是会员显示什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看之前是否有订单，如果有继续支付，如果没有生成订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调用支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击显示历史 重新到页面显示热搜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改成已购套餐 ：几个月  剩余天数：时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,12 +336,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,23 +404,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,7 +789,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
@@ -807,7 +799,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
@@ -815,7 +807,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -823,61 +815,61 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
@@ -885,9 +877,9 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>45</v>
@@ -899,7 +891,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -911,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>45</v>
@@ -919,9 +911,9 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>45</v>
@@ -929,9 +921,9 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
@@ -963,9 +955,9 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
@@ -973,9 +965,9 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
@@ -987,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>45</v>
@@ -1011,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>45</v>
@@ -1019,9 +1011,9 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>45</v>
@@ -1033,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>45</v>
@@ -1045,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>45</v>
@@ -1053,9 +1045,9 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>45</v>
@@ -1091,7 +1083,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>45</v>
@@ -1103,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -1130,16 +1122,16 @@
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>68</v>
+      <c r="B35" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1151,7 +1143,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -1159,12 +1151,12 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -1176,7 +1168,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1"/>
     </row>
@@ -1188,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -1200,7 +1192,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1218,14 +1210,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didi/StudioProjects/zdy_flutter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +310,19 @@
   </si>
   <si>
     <t>改成已购套餐 ：几个月  剩余天数：时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改不了</t>
+    <rPh sb="0" eb="1">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>l</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,19 +334,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -350,51 +382,51 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -404,12 +436,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -419,9 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,7 +470,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,12 +512,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -514,12 +547,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -725,18 +758,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -750,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,7 +797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -776,8 +809,8 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -788,8 +821,8 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
@@ -798,8 +831,8 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
@@ -810,8 +843,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -822,8 +855,8 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
@@ -832,8 +865,8 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -844,8 +877,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
@@ -854,8 +887,8 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
@@ -864,29 +897,29 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -898,39 +931,41 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -942,8 +977,8 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -954,8 +989,8 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
@@ -964,8 +999,8 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
@@ -974,7 +1009,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -986,7 +1021,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -998,8 +1033,8 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1010,8 +1045,8 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1020,7 +1055,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1032,8 +1067,8 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1044,8 +1079,8 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1054,7 +1089,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1066,7 +1101,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1113,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1090,7 +1125,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1137,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1114,7 +1149,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1126,11 +1161,11 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1138,8 +1173,8 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1150,8 +1185,8 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1160,7 +1195,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1172,7 +1207,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1184,7 +1219,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1196,7 +1231,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1231,7 +1266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,7 +1279,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,6 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -454,7 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -759,7 +759,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,7 +810,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -822,7 +822,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -856,7 +856,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -910,7 +910,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -944,11 +944,11 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
@@ -978,34 +978,34 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>45</v>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1046,7 +1046,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1080,7 +1080,7 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1186,7 +1186,7 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>67</v>
       </c>

--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didi/StudioProjects/zdy_flutter/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>样式未调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温馨提示</t>
   </si>
   <si>
@@ -189,30 +177,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要统计320*480、480*800、720*1280、1080*1920、2K屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热搜样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热搜后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要统计320*480、480*800、720*1280、1080*1920、2K屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热搜样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热搜后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +262,6 @@
   </si>
   <si>
     <t>没有推荐词，切无法找到药的情况下显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样式未调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -325,12 +305,58 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>logo有些变形，字体是否可以切图因为字体特殊，无法显示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上半部尺寸比例不对，需要覆盖到紫色背景图以下，没有历史图标，药品名称下底色不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种分辨率下的内容无法固定，背景图是拉神的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面尺寸调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸不对，太窄，边框过宽，字体大小</t>
+  </si>
+  <si>
+    <t>尺寸不对，太窄，边框过宽，字体大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问需要改页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面尺寸调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色边框过宽，星星颜色需改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上半部尺寸比例不对，没有检索历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色底板尺寸不对</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -446,6 +478,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -455,6 +490,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,7 +549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -547,7 +584,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -756,22 +793,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.375" customWidth="1"/>
+    <col min="4" max="4" width="55.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -783,476 +820,623 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10"/>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="10"/>
+      <c r="B43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1"/>
+      <c r="D55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1266,7 +1450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1279,9 +1463,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -481,17 +481,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -796,7 +796,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -835,7 +835,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
         <v>69</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -869,7 +869,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -879,23 +879,23 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -903,7 +903,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
         <v>77</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -925,7 +925,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="6" t="s">
         <v>79</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -989,7 +989,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1021,7 +1021,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="12"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
         <v>77</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1043,7 +1043,7 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1099,7 +1099,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1141,7 +1141,7 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="6" t="s">
         <v>77</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1175,7 +1175,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="6" t="s">
         <v>75</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1207,7 +1207,7 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="6" t="s">
         <v>74</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1229,7 +1229,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="9"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="6" t="s">
         <v>74</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1273,7 +1273,7 @@
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="6" t="s">
         <v>80</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -1295,7 +1295,7 @@
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="6" t="s">
         <v>73</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1365,7 +1365,7 @@
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="9"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
@@ -1424,6 +1424,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A33:A35"/>
@@ -1432,11 +1437,6 @@
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didi/StudioProjects/zdy_flutter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -356,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,10 +494,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,17 +804,17 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.375" customWidth="1"/>
-    <col min="4" max="4" width="55.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -820,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -834,8 +842,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>69</v>
       </c>
@@ -844,7 +852,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,7 +864,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -868,8 +876,8 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -878,8 +886,8 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
@@ -890,8 +898,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>70</v>
       </c>
@@ -902,8 +910,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>77</v>
       </c>
@@ -912,7 +920,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
@@ -924,8 +932,8 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -934,8 +942,8 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -946,8 +954,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -956,8 +964,8 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -966,8 +974,8 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
       <c r="B15" s="6" t="s">
         <v>79</v>
       </c>
@@ -976,7 +984,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
@@ -988,8 +996,8 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -998,7 +1006,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
         <v>77</v>
@@ -1008,7 +1016,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +1028,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
         <v>77</v>
@@ -1030,7 +1038,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1042,8 +1050,8 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1054,8 +1062,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
@@ -1064,17 +1072,17 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1094,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1098,8 +1106,8 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1108,8 +1116,8 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1118,8 +1126,8 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
@@ -1128,7 +1136,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1148,8 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
       <c r="B31" s="6" t="s">
         <v>77</v>
       </c>
@@ -1150,7 +1158,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1162,20 +1170,20 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>43</v>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
@@ -1184,52 +1192,52 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
       <c r="B35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
+      <c r="C35" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>43</v>
+      <c r="C36" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
       <c r="B37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>43</v>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="12"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
       <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
@@ -1238,17 +1246,17 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
       <c r="B40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
+      <c r="C40" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -1260,7 +1268,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>22</v>
       </c>
@@ -1272,8 +1280,8 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
       <c r="B43" s="6" t="s">
         <v>80</v>
       </c>
@@ -1282,7 +1290,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>26</v>
       </c>
@@ -1294,8 +1302,8 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
       <c r="B45" s="6" t="s">
         <v>73</v>
       </c>
@@ -1304,7 +1312,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1324,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1336,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +1348,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1360,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>35</v>
       </c>
@@ -1364,8 +1372,8 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="12"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
       <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
@@ -1374,7 +1382,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
@@ -1386,7 +1394,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>33</v>
       </c>
@@ -1398,7 +1406,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -1410,7 +1418,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -1424,11 +1432,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A33:A35"/>
@@ -1437,6 +1440,11 @@
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1450,7 +1458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,7 +1471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didi/StudioProjects/zdy_flutter/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中间白色背景图切成三段显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他不适文字区域的背景颜色不对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,19 +286,6 @@
   </si>
   <si>
     <t>改成已购套餐 ：几个月  剩余天数：时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改不了</t>
-    <rPh sb="0" eb="1">
-      <t>gai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>l</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,10 +469,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,20 +776,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
-    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.375" customWidth="1"/>
+    <col min="4" max="4" width="55.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -828,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -842,17 +817,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,7 +839,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -876,8 +851,8 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -886,8 +861,8 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
@@ -895,153 +870,153 @@
         <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="11"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>25</v>
-      </c>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1050,64 +1025,62 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>12</v>
-      </c>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1116,335 +1089,325 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="11"/>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>43</v>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>16</v>
-      </c>
+    <row r="33" spans="1:4">
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="11"/>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="12"/>
+      <c r="B38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="6" t="s">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="11"/>
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="11"/>
+      <c r="B42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="1" t="s">
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="11"/>
+      <c r="B44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>35</v>
-      </c>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
+      <c r="C50" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1458,7 +1421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,7 +1434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -469,10 +469,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,7 +779,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -818,7 +818,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>67</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
@@ -874,7 +874,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>68</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -930,7 +930,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="6" t="s">
         <v>77</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6" t="s">
         <v>75</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>75</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="6" t="s">
         <v>72</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="1" t="s">
         <v>59</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="11"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="6" t="s">
         <v>72</v>
       </c>
@@ -1226,8 +1226,8 @@
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>43</v>
+      <c r="C40" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1244,7 +1244,7 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="11"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="6" t="s">
         <v>78</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>71</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="12"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
@@ -1395,11 +1395,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A32:A34"/>
@@ -1408,6 +1403,11 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/界面沟通文档.xlsx
+++ b/界面沟通文档.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要添加推荐系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紫色边框应该变小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +329,14 @@
   </si>
   <si>
     <t>白色底板尺寸不对</t>
+  </si>
+  <si>
+    <t>未处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,10 +473,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -818,9 +822,9 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -852,7 +856,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -862,7 +866,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
@@ -870,25 +874,25 @@
         <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
@@ -908,7 +912,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -918,7 +922,7 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -926,11 +930,11 @@
         <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -940,9 +944,9 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>40</v>
@@ -962,7 +966,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
@@ -974,7 +978,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>40</v>
@@ -996,7 +1000,7 @@
     <row r="19" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
@@ -1016,7 +1020,7 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1026,7 +1030,7 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1036,9 +1040,9 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>40</v>
@@ -1050,10 +1054,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1070,7 +1074,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1080,7 +1084,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1090,9 +1094,9 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>40</v>
@@ -1104,20 +1108,20 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1126,10 +1130,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -1138,17 +1142,17 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="12"/>
+      <c r="B33" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11"/>
-      <c r="B33" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>43</v>
@@ -1156,9 +1160,9 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>40</v>
@@ -1170,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>40</v>
@@ -1178,9 +1182,9 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>40</v>
@@ -1192,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>40</v>
@@ -1200,9 +1204,9 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>43</v>
@@ -1210,9 +1214,9 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="12"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>40</v>
@@ -1244,9 +1248,9 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>40</v>
@@ -1258,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>40</v>
@@ -1266,9 +1270,9 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -1280,10 +1284,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -1307,7 +1311,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -1316,7 +1320,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1328,20 +1332,20 @@
         <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12"/>
+      <c r="B50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="11"/>
-      <c r="B50" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1"/>
     </row>
@@ -1353,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -1365,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1"/>
     </row>
@@ -1377,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1"/>
     </row>
@@ -1395,6 +1399,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A32:A34"/>
@@ -1403,11 +1412,6 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
